--- a/biology/Biochimie/Phosphoribosylpyrophosphate/Phosphoribosylpyrophosphate.xlsx
+++ b/biology/Biochimie/Phosphoribosylpyrophosphate/Phosphoribosylpyrophosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le phosphoribosylpyrophosphate, ou α-D-ribofuranose 5-phosphate 1-diphosphate, généralement abrégé en PRPP, est un métabolite dérivé du ribose substitué avec un phosphate en C5 et un pyrophosphate en C1. Il est produit essentiellement comme intermédiaire de la biosynthèse des nucléotides puriques et pyrimidiques, et intervient également comme cosubstrat avec le nicotinate dans la synthèse du NAD+ et du NADP+. Il provient in vivo du ribose-5-phosphate et de l'ATP ou de la dATP sous l'action de la ribose-phosphate diphosphokinase (EC 2.7.6.1).
